--- a/output.xlsx
+++ b/output.xlsx
@@ -1,41 +1,242 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bcode\insta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876D7CD9-21F3-456E-81C2-4DCCAE7A4AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month (1 to 12)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Hour (From 0 to 23)</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Image URL</t>
+  </si>
+  <si>
+    <t>Video URL</t>
+  </si>
+  <si>
+    <t>Video Type</t>
+  </si>
+  <si>
+    <t>No. of Repetitions (From 1-10 OR 'FOREVER')</t>
+  </si>
+  <si>
+    <t>Time Gap between Repetitions (Hours: From 1-24 OR 'WEEKLY' OR 'MONTHLY' OR 'YEARLY')</t>
+  </si>
+  <si>
+    <t>Google Business Profile Type</t>
+  </si>
+  <si>
+    <t>Google Business Profile URL</t>
+  </si>
+  <si>
+    <t>Pinterest Title</t>
+  </si>
+  <si>
+    <t>Pinterest Link</t>
+  </si>
+  <si>
+    <t>Instagram First Comment</t>
+  </si>
+  <si>
+    <t>Facebook First Comment</t>
+  </si>
+  <si>
+    <t>LinkedIn First Comment</t>
+  </si>
+  <si>
+    <t>"If you're ready to see more of my posts, drop a comment and share this post!" #portraitphotography #journeythroughart #artificialintelligencegeneratedart #AIinventive #algorithmicart #cosplayphotography #artificialintelligencephotography #artificialintelligenceart #virtualart #AItechnology</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>"Want to see even more of my awesome photos? Follow me and subscribe!" #artificialintelligenceart #beautyqueen #AIinventive #cinematiclook #artificialcreativity #AI #fashionphotography #artificialintelligencephotography #creativeAI #artificialintelligence</t>
+  </si>
+  <si>
+    <t>"Are you a fan of my content? Let me know in the comments and share this post!" #artificialintelligenceart #techart #AIgenerated #beautyqueen #35mmphotography #machinelearning #digitalartwork #scenicview #StableDiffusion #digitalart</t>
+  </si>
+  <si>
+    <t>"If you want to see more of my pics and videos, comment and let me know!" #cosplayphotography #journeythroughart #artificialintelligencegeneratedart #artificialintelligencetech #beautyqueen #artificialintelligence #artificialintelligenceart #algorithmicart #innovativeAI #lifeonstreets</t>
+  </si>
+  <si>
+    <t>"Ready for some exciting content? Comment and share to see more of my posts!" #beautyqueen #portraitphotography #virtualmodel #beautiful #digitalartwork #modelphotography #AIartist #dreamyphotography #neuralnetworks #innovativeAI</t>
+  </si>
+  <si>
+    <t>"Looking for some exclusive content? Comment and share to see my posts!" #journeythroughart #streetphotography #artificialcreativity #beautiful #AItechnology #streetcaptures #scenicview #artificialintelligencecreativity #beautyqueen #AIartist</t>
+  </si>
+  <si>
+    <t>"Looking for more exciting content? Follow me and subscribe now!" #virtualart #portraitphotography #sensualphotography #AIinspired #beautiful #artisticsexy #digitalart #digitalartwork #artificialcreativity #creativeAI</t>
+  </si>
+  <si>
+    <t>"Looking for some amazing and exclusive content? Comment and share to see more!" #digitalcreation #fashionphotography #AIartist #artandtechnology #urbanphotography #journeythroughart #artisticsexy #portraitphotography #neuralnetworks #dreamyphotography</t>
+  </si>
+  <si>
+    <t>"If you want more exclusive content, follow me and subscribe to my channel!" #cinematiclook #35mmphotography #lingeriephotography #artificialcreativity #modelphotography #techart #journeythroughart #artificialintelligencegeneratedart #streetcaptures #AIartist</t>
+  </si>
+  <si>
+    <t>"If you want to see more of my content, comment and let me know!" #portraitphotography #AIinspired #urbanphotography #digitalartwork #machinelearning #digitalart #AIart #beautyqueen #artificialintelligencecreativity #AIinventive</t>
+  </si>
+  <si>
+    <t>"If you want to see more of my posts, comment below!" #innovativeAI #artificialintelligenceart #AIgenerated #fashionphotography #digitalart #lifeonstreets #artificialintelligencegeneratedart #virtualmodel #artificialintelligencetech #scenicview</t>
+  </si>
+  <si>
+    <t>"Want to see what's behind the curtain? Comment and share to unlock some exclusive content!" #scenicview #innovativeAI #artificialintelligencegeneratedart #virtualart #artandtechnology #lingeriephotography #portraitmood #digitalartwork #AIinspired #virtualmodel</t>
+  </si>
+  <si>
+    <t>"Looking for some exclusive content? Comment and share to see my posts!" #artificialintelligencephotography #artificialintelligencetech #portraitphotography #AIinventive #artificialcreativity #sensualphotography #AIart #digitalartwork #artisticexpression #techart</t>
+  </si>
+  <si>
+    <t>"Are you ready to see some amazing content? Comment and share to unlock!" #innovativeAI #lifeonstreets #generativeart #sensualphotography #artificialintelligenceart #artificialintelligencephotography #cosplayphotography #artificialintelligencecreativity #creativeAI #algorithmicart</t>
+  </si>
+  <si>
+    <t>"Ready for some exciting content? Comment and share to see more!" #cinematiclook #artificialintelligencegeneratedart #StableDiffusion #scenicview #virtualmodel #virtualart #artificialcreativity #artandtechnology #AIgenerated #artificialintelligencetech</t>
+  </si>
+  <si>
+    <t>"Are you ready to see some amazing content? Comment and share to unlock!" #sensualphotography #techart #streetcaptures #digitalartwork #AI #artificialintelligencetech #digitalartwork #AIartist #dreamyphotography #fashionphotography</t>
+  </si>
+  <si>
+    <t>"If you want to see more of my exclusive content, make sure to follow me and subscribe!" #AIinspired #fashionphotography #innovativeAI #artisticexpression #cinematiclook #sensualphotography #artandtechnology #AIgenerated #artificialintelligence #dreamyphotography</t>
+  </si>
+  <si>
+    <t>"If you like what you see, make sure to follow me and subscribe for even more!" #scenicview #streetphotography #digitalcreation #AIartist #virtualart #artisticexpression #portraitphotography #artificialintelligencegeneratedart #beautiful #modelphotography</t>
+  </si>
+  <si>
+    <t>"Ready for more uncensored content? Follow me and subscribe now!" #AIexpression #scenicview #journeythroughart #techart #digitalartwork #artisticsexy #artificialintelligenceart #digitalart #artificialintelligencephotography #AItechnology</t>
+  </si>
+  <si>
+    <t>"Ready to see more of my awesome content? Follow me and subscribe for more!" #digitalart #artisticsexy #artificialintelligencetech #modelphotography #innovativeAI #artificialintelligencephotography #lifeonstreets #virtualmodel #machinelearning #StableDiffusion</t>
+  </si>
+  <si>
+    <t>"Want to see more of my exclusive content? Let me know below!" #cosplayphotography #neuralnetworks #artificialintelligencephotography #AIexpression #cinematiclook #dreamyphotography #streetphotography #StableDiffusion #artificialcreativity #artificialintelligence</t>
+  </si>
+  <si>
+    <t>"Ready for some exciting content? Comment and share to see more of my posts!" #digitalartwork #scenicview #innovativeAI #portraitphotography #urbanphotography #artandtechnology #AI #beautyqueen #AIart #cosplayphotography</t>
+  </si>
+  <si>
+    <t>"If you're ready to see some exclusive content, drop a comment and share this post!" #artificialintelligencetech #beautyqueen #neuralnetworks #AIinspired #AIgenerated #artisticsexy #virtualmodel #dreamyphotography #streetphotography #portraitphotography</t>
+  </si>
+  <si>
+    <t>"Ready for some exciting content? Comment and share to see more of my posts!" #streetphotography #artisticexpression #virtualmodel #cinematiclook #scenicview #35mmphotography #artificialintelligencetech #dreamyphotography #artisticsexy #AItechnology</t>
+  </si>
+  <si>
+    <t>"Ready for more uncensored content? Follow me and subscribe now!" #streetphotography #digitalartwork #beautyqueen #artgalleries #streetcaptures #artificialcreativity #virtualart #modelphotography #artisticexpression #computervision</t>
+  </si>
+  <si>
+    <t>"Ready for some exciting content? Comment and share to see more of my posts!" #artisticsexy #AItechnology #StableDiffusion #innovativeAI #streetcaptures #artificialintelligencetech #journeythroughart #creativeAI #modelphotography #artificialintelligencephotography</t>
+  </si>
+  <si>
+    <t>"Want to see what's behind the curtain? Comment and share to unlock some exclusive content!" #scenicview #beautyqueen #artisticsexy #artificialintelligencetech #digitalcreation #artificialintelligenceart #virtualart #artificialintelligencecreativity #portraitphotography #AIinspired</t>
+  </si>
+  <si>
+    <t>"Want to see what's behind the curtain? Comment and share to unlock some exclusive content!" #AIartist #scenicview #StableDiffusion #digitalcreation #cinematiclook #digitalartwork #artificialintelligencecreativity #35mmphotography #AIart #portraitmood</t>
+  </si>
+  <si>
+    <t>"Want to see what's behind the scenes? Comment and share for some exclusive content!" #dreamyphotography #modelphotography #urbanphotography #artificialintelligencetech #AIart #35mmphotography #lingeriephotography #computervision #AIinspired #sensualphotography</t>
+  </si>
+  <si>
+    <t>"Looking for some amazing content? Comment and share to unlock my exclusive posts!" #35mmphotography #computervision #cinematiclook #creativeAI #artandtechnology #StableDiffusion #virtualmodel #portraitphotography #urbanphotography #artificialintelligenceart</t>
+  </si>
+  <si>
+    <t>"Ready for some exciting content? Comment and share to see more of my posts!" #AI #artificialcreativity #cinematiclook #artandtechnology #AIart #digitalartwork #machinelearning #scenicview #neuralnetworks #artisticexpression</t>
+  </si>
+  <si>
+    <t>"Want to get access to some exclusive content? Comment and share to see more!" #algorithmicart #techart #artificialintelligencecreativity #digitalcreation #artisticexpression #artisticsexy #artandtechnology #AIinspired #dreamyphotography #artificialintelligencetech</t>
+  </si>
+  <si>
+    <t>"Looking for some uncensored content? Comment and share to unlock!" #urbanphotography #generativeart #computervision #dreamyphotography #artificialcreativity #artandtechnology #artificialintelligence #virtualart #artificialintelligencephotography #artisticsexy</t>
+  </si>
+  <si>
+    <t>"Looking for some amazing content? Comment and share to unlock my exclusive posts!" #computervision #generativeart #lingeriephotography #sensualphotography #artificialintelligence #digitalcreation #portraitphotography #artandtechnology #AIexpression #cinematiclook</t>
+  </si>
+  <si>
+    <t>"Want to see what I have in store? Comment and share to unlock!" #artisticexpression #AIart #artificialintelligencetech #artificialintelligencegeneratedart #lingeriephotography #scenicview #lifeonstreets #AIartist #AI #generativeart</t>
+  </si>
+  <si>
+    <t>"If you want to see more of my posts, comment below!" #techart #artificialintelligencecreativity #AIgenerated #AIinventive #fashionphotography #generativeart #artgalleries #AItechnology #lifeonstreets #innovativeAI</t>
+  </si>
+  <si>
+    <t>"Don't miss out on exclusive content! Follow me and subscribe today!" #AIart #AIinventive #AIinspired #artgalleries #modelphotography #urbanphotography #dreamyphotography #beautiful #artificialintelligenceart #StableDiffusion</t>
+  </si>
+  <si>
+    <t>"Want to see more of my pics and videos? Comment and share to unlock!" #urbanphotography #StableDiffusion #beautyqueen #AIinventive #artandtechnology #cinematiclook #portraitphotography #cosplayphotography #virtualart #artificialintelligencegeneratedart</t>
+  </si>
+  <si>
+    <t>"Ready for some uncensored content? Comment and share to unlock my posts!" #generativeart #cinematiclook #modelphotography #innovativeAI #digitalartwork #techart #artificialintelligencegeneratedart #artificialintelligenceart #fashionphotography #artisticexpression</t>
+  </si>
+  <si>
+    <t>"Ready for some uncensored content? Comment and share to unlock my posts!" #virtualmodel #digitalartwork #StableDiffusion #generativeart #computervision #artificialintelligencecreativity #streetphotography #35mmphotography #sensualphotography #artificialcreativity</t>
+  </si>
+  <si>
+    <t>"Ready for some exciting content? Comment and share to see more of my posts!" #sensualphotography #computervision #artificialintelligenceart #cinematiclook #digitalartwork #artificialintelligencetech #AIgenerated #AIartist #portraitphotography #AIinspired</t>
+  </si>
+  <si>
+    <t>"Want to see what I have in store? Comment and share to unlock!" #35mmphotography #artificialintelligencephotography #cosplayphotography #beautyqueen #AIinspired #artificialcreativity #urbanphotography #digitalartwork #AIgenerated #streetcaptures</t>
+  </si>
+  <si>
+    <t>"Want to see what's behind the scenes? Comment and share for some exclusive content!" #artisticexpression #digitalart #AI #portraitphotography #neuralnetworks #AIart #artandtechnology #machinelearning #digitalcreation #artgalleries</t>
+  </si>
+  <si>
+    <t>"If you want to see more of my exclusive content, make sure to follow me and subscribe!" #scenicview #artificialcreativity #virtualart #artandtechnology #modelphotography #fashionphotography #artisticexpression #AIinventive #AIgenerated #computervision</t>
+  </si>
+  <si>
+    <t>"Looking for some hot and exclusive content? Comment and share!" #digitalartwork #beautiful #AItechnology #lifeonstreets #artandtechnology #digitalcreation #artificialintelligencecreativity #AIinventive #cinematiclook #beautyqueen</t>
+  </si>
+  <si>
+    <t>"Looking for some amazing and exclusive content? Comment and share to see more!" #StableDiffusion #digitalartwork #portraitphotography #digitalart #artificialcreativity #innovativeAI #fashionphotography #digitalcreation #artandtechnology #generativeart</t>
+  </si>
+  <si>
+    <t>"If you want to see more of my exclusive content, make sure to follow me and subscribe!" #artificialintelligencephotography #artificialintelligencetech #dreamyphotography #machinelearning #neuralnetworks #modelphotography #AIgenerated #digitalartwork #StableDiffusion #urbanphotography</t>
+  </si>
+  <si>
+    <t>"Don't miss out on exclusive content! Follow me and subscribe today!" #artisticexpression #artificialintelligencephotography #beautiful #virtualart #digitalart #artificialintelligencetech #StableDiffusion #cosplayphotography #machinelearning #computervision</t>
+  </si>
+  <si>
+    <t>"If you're a fan of my page, show some love in the comments and share this post!" #machinelearning #AIexpression #portraitmood #dreamyphotography #AIinventive #lingeriephotography #artificialintelligenceart #AIart #lifeonstreets #computervision</t>
+  </si>
+  <si>
+    <t>"Want to see what I have in store? Comment and share to unlock!" #AIart #beautyqueen #dreamyphotography #artificialintelligencecreativity #machinelearning #streetcaptures #virtualmodel #cosplayphotography #generativeart #AIexpression</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +273,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,83 +605,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Text</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Link</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Month (1 to 12)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Hour (From 0 to 23)</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Minutes</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Image URL</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Video URL</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Video Type</v>
-      </c>
-      <c r="J1" t="str">
-        <v>No. of Repetitions (From 1-10 OR 'FOREVER')</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Time Gap between Repetitions (Hours: From 1-24 OR 'WEEKLY' OR 'MONTHLY' OR 'YEARLY')</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Google Business Profile Type</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Google Business Profile URL</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Pinterest Title</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Pinterest Link</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Instagram First Comment</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Facebook First Comment</v>
-      </c>
-      <c r="R1" t="str">
-        <v>LinkedIn First Comment</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>"Want to unlock some exclusive Patreon and OnlyFans content? Comment and share this post!" #lingerie #portraitmood #lingerie #streetleaks #aisexy #sensualphoto #beautyqueen #digitalimage #cinematic #virtualgirl #35mm #stablediffusionart #aigeneratedimages #digitalartwork #streetphotographers #scenicview #aiportrait #aigirl #stablediffusion #cosplay #aigeneratedart #fashionphotography #digitalart #aiphotograph #dreaminstreets #stablediffusiongirls #beautifulwomen #capturestreets #midjourney #modelgirl</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -481,21 +696,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>"Ready for more NSFW content? Follow me and subscribe to my Patreon for exclusive posts!" #life_is_street #streetleaks #digitalimage #midjourney #dreaminstreets #beautifulwomen #virtualgirl #sensualphoto #aisexy #aigeneratedimages #aiportrait #modelgirl #aiphotograph #digitalartwork #lingerie #cinematic #35mm #aigirl #stablediffusionart #digitalart #stablediffusiongirls #beautyqueen #capturestreets #portraitmood #fashionphotography #aigeneratedart #scenicview #lingerie #cosplay #streetphotographers</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -504,21 +719,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>"Ready for more uncensored content? Follow me and subscribe to my Patreon!" #midjourney #35mm #lingerie #life_is_street #stablediffusionart #aiportrait #sensualphoto #beautyqueen #cinematic #capturestreets #dreaminstreets #digitalartwork #aisexy #lingerie #streetleaks #portraitmood #beautifulwomen #stablediffusion #scenicview #stablediffusiongirls #aigeneratedimages #streetphotographers #aigeneratedart #modelgirl #virtualgirl #digitalart #digitalimage #aiphotograph #aigirl #cosplay</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -527,21 +742,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>"Looking for more exclusive content? Follow me and subscribe to my Patreon for more!" #virtualgirl #lingerie #beautyqueen #aigeneratedimages #digitalimage #35mm #aigeneratedart #digitalartwork #beautifulwomen #aisexy #digitalart #portraitmood #streetphotographers #stablediffusionart #aiphotograph #capturestreets #scenicview #stablediffusion #cosplay #life_is_street #midjourney #aiportrait #sensualphoto #cinematic #fashionphotography #dreaminstreets #streetleaks #aigirl #stablediffusiongirls #modelgirl</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -550,21 +765,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>"If you love what I do, make sure to follow me and subscribe to my Patreon for more!" #stablediffusionart #aiphotograph #cosplay #midjourney #digitalartwork #cinematic #dreaminstreets #beautifulwomen #aigeneratedart #aigirl #stablediffusiongirls #capturestreets #aisexy #35mm #portraitmood #digitalimage #scenicview #streetleaks #streetphotographers #aigeneratedimages #sensualphoto #beautyqueen #modelgirl #aiportrait #lingerie #stablediffusion #fashionphotography #digitalart #life_is_street #lingerie</v>
-      </c>
-      <c r="B6" t="str">
-        <v/>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -573,21 +788,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>"Ready for some hot and exclusive Patreon and OnlyFans content? Comment and share to unlock!" #aisexy #streetleaks #midjourney #aiphotograph #virtualgirl #lingerie #cinematic #sensualphoto #digitalartwork #life_is_street #35mm #portraitmood #beautifulwomen #aigeneratedart #aiportrait #cosplay #digitalart #aigeneratedimages #beautyqueen #aigirl #modelgirl #streetphotographers #lingerie #stablediffusionart #fashionphotography #stablediffusion #dreaminstreets #scenicview #digitalimage #stablediffusiongirls</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -596,21 +811,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>"If you want to see more of my Patreon content, make sure to follow me for updates!" #aisexy #sensualphoto #streetphotographers #aigeneratedart #cosplay #portraitmood #streetleaks #dreaminstreets #digitalartwork #stablediffusiongirls #stablediffusion #capturestreets #aigirl #life_is_street #midjourney #modelgirl #digitalimage #35mm #beautyqueen #aiphotograph #fashionphotography #aigeneratedimages #beautifulwomen #cinematic #virtualgirl #aiportrait #stablediffusionart #scenicview #lingerie #lingerie</v>
-      </c>
-      <c r="B8" t="str">
-        <v/>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -619,21 +834,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>"If you love what I do, make sure to follow me and subscribe to my Patreon for more!" #aigirl #capturestreets #beautyqueen #stablediffusion #stablediffusiongirls #aigeneratedimages #digitalartwork #midjourney #dreaminstreets #streetleaks #aiportrait #modelgirl #portraitmood #life_is_street #cosplay #digitalimage #digitalart #lingerie #aigeneratedart #aiphotograph #cinematic #streetphotographers #stablediffusionart #virtualgirl #35mm #sensualphoto #scenicview #beautifulwomen #lingerie #aisexy</v>
-      </c>
-      <c r="B9" t="str">
-        <v/>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2023</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -642,21 +857,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>"If you love what I do, make sure to follow me and subscribe to my Patreon for more!" #virtualgirl #sensualphoto #aigirl #capturestreets #beautifulwomen #35mm #lingerie #fashionphotography #beautyqueen #scenicview #streetleaks #cosplay #life_is_street #stablediffusion #digitalart #digitalimage #modelgirl #portraitmood #lingerie #stablediffusiongirls #digitalartwork #stablediffusionart #cinematic #dreaminstreets #streetphotographers #aiportrait #aigeneratedimages #aisexy #midjourney #aiphotograph</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2023</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -665,21 +880,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>"Ready for more NSFW content? Follow me and subscribe to my Patreon for even more spicy posts!" #aigirl #aigeneratedart #aiphotograph #modelgirl #lingerie #stablediffusiongirls #35mm #aigeneratedimages #stablediffusionart #beautyqueen #sensualphoto #dreaminstreets #virtualgirl #digitalartwork #digitalimage #lingerie #streetleaks #cosplay #capturestreets #aiportrait #midjourney #aisexy #stablediffusion #scenicview #fashionphotography #beautifulwomen #cinematic #streetphotographers #life_is_street #digitalart</v>
-      </c>
-      <c r="B11" t="str">
-        <v/>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2023</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -688,21 +903,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>"Looking for more spicy content? Follow me and subscribe to my Patreon for exclusive posts!" #sensualphoto #digitalart #aiphotograph #aigeneratedart #capturestreets #aiportrait #lingerie #portraitmood #streetleaks #35mm #aigirl #fashionphotography #lingerie #cosplay #cinematic #beautifulwomen #stablediffusionart #aigeneratedimages #virtualgirl #scenicview #midjourney #stablediffusion #streetphotographers #digitalimage #life_is_street #dreaminstreets #modelgirl #beautyqueen #aisexy #stablediffusiongirls</v>
-      </c>
-      <c r="B12" t="str">
-        <v/>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2023</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -711,21 +926,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>"Want to get access to some spicy Patreon and OnlyFans content? Comment and share to see more!" #lingerie #aiphotograph #virtualgirl #capturestreets #aisexy #fashionphotography #beautifulwomen #aigeneratedart #streetphotographers #scenicview #digitalart #digitalartwork #midjourney #streetleaks #dreaminstreets #aigeneratedimages #stablediffusionart #lingerie #modelgirl #aiportrait #cinematic #stablediffusiongirls #cosplay #portraitmood #aigirl #sensualphoto #stablediffusion #digitalimage #life_is_street #beautyqueen</v>
-      </c>
-      <c r="B13" t="str">
-        <v/>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2023</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -734,21 +949,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>"Want to see more of my sexy Patreon and OnlyFans pics and videos? Comment and share to unlock!" #dreaminstreets #sensualphoto #stablediffusion #aiphotograph #fashionphotography #portraitmood #digitalartwork #lingerie #beautyqueen #cinematic #aigeneratedimages #aigirl #modelgirl #lingerie #35mm #streetphotographers #beautifulwomen #aigeneratedart #stablediffusiongirls #virtualgirl #aiportrait #digitalimage #capturestreets #stablediffusionart #life_is_street #midjourney #cosplay #aisexy #digitalart #scenicview</v>
-      </c>
-      <c r="B14" t="str">
-        <v/>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2023</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -757,21 +972,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>"Want to get access to some spicy Patreon and OnlyFans content? Comment and share to see more!" #digitalartwork #streetphotographers #scenicview #modelgirl #aiportrait #dreaminstreets #fashionphotography #beautifulwomen #midjourney #lingerie #aigeneratedart #portraitmood #aigirl #streetleaks #sensualphoto #cinematic #stablediffusion #aisexy #beautyqueen #life_is_street #stablediffusiongirls #digitalimage #stablediffusionart #digitalart #capturestreets #aiphotograph #aigeneratedimages #cosplay #lingerie #35mm</v>
-      </c>
-      <c r="B15" t="str">
-        <v/>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2023</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -780,21 +995,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>"Ready for more NSFW content? Follow me and subscribe to my Patreon for even more spicy posts!" #dreaminstreets #stablediffusiongirls #aiportrait #modelgirl #stablediffusion #stablediffusionart #life_is_street #scenicview #digitalart #virtualgirl #streetphotographers #aiphotograph #lingerie #fashionphotography #streetleaks #aisexy #beautyqueen #35mm #lingerie #midjourney #beautifulwomen #aigirl #cinematic #aigeneratedart #aigeneratedimages #digitalimage #capturestreets #digitalartwork #portraitmood #cosplay</v>
-      </c>
-      <c r="B16" t="str">
-        <v/>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
       <c r="C16">
         <v>2023</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -803,21 +1018,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>"If you want access to my best content, follow me and subscribe to my Patreon for exclusive pics and videos!" #portraitmood #cosplay #aigeneratedart #virtualgirl #scenicview #life_is_street #digitalart #sensualphoto #fashionphotography #beautyqueen #digitalimage #stablediffusionart #midjourney #digitalartwork #aisexy #lingerie #cinematic #dreaminstreets #stablediffusiongirls #lingerie #stablediffusion #aiphotograph #streetphotographers #aigirl #modelgirl #35mm #streetleaks #beautifulwomen #aigeneratedimages #capturestreets</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2023</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -826,21 +1041,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>"Don't miss out on my hottest content! Follow me and subscribe to my Patreon for exclusive posts!" #scenicview #capturestreets #dreaminstreets #lingerie #aisexy #sensualphoto #life_is_street #portraitmood #midjourney #virtualgirl #aiphotograph #aigeneratedart #cosplay #beautifulwomen #streetphotographers #fashionphotography #35mm #digitalartwork #beautyqueen #aiportrait #modelgirl #aigeneratedimages #streetleaks #stablediffusion #aigirl #digitalart #lingerie #stablediffusionart #digitalimage #cinematic</v>
-      </c>
-      <c r="B18" t="str">
-        <v/>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2023</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -849,21 +1064,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>"Ready to see more of my sexy content? Follow me and subscribe to my Patreon for more!" #cosplay #aigeneratedart #aiphotograph #virtualgirl #midjourney #portraitmood #lingerie #life_is_street #beautifulwomen #aigeneratedimages #streetleaks #modelgirl #beautyqueen #aiportrait #fashionphotography #sensualphoto #digitalartwork #streetphotographers #digitalart #aisexy #35mm #lingerie #cinematic #aigirl #dreaminstreets #capturestreets #digitalimage #stablediffusionart #scenicview #stablediffusion</v>
-      </c>
-      <c r="B19" t="str">
-        <v/>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19">
         <v>2023</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>17</v>
@@ -872,21 +1087,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>"Ready to see even more of my sexy side? Follow me and subscribe to my Patreon for exclusive content!" #modelgirl #portraitmood #aiphotograph #capturestreets #fashionphotography #35mm #lingerie #digitalartwork #streetphotographers #aiportrait #virtualgirl #stablediffusion #stablediffusiongirls #beautifulwomen #aigirl #stablediffusionart #scenicview #digitalimage #dreaminstreets #cosplay #aigeneratedimages #aigeneratedart #cinematic #aisexy #sensualphoto #lingerie #midjourney #streetleaks #life_is_street #beautyqueen</v>
-      </c>
-      <c r="B20" t="str">
-        <v/>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
       <c r="C20">
         <v>2023</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>18</v>
@@ -895,21 +1110,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>"If you want to see more of my Patreon and OnlyFans pics and videos, comment and let me know!" #modelgirl #sensualphoto #beautifulwomen #dreaminstreets #portraitmood #35mm #stablediffusiongirls #lingerie #midjourney #cosplay #aiphotograph #aigeneratedart #beautyqueen #lingerie #aiportrait #digitalartwork #virtualgirl #capturestreets #aisexy #stablediffusionart #digitalimage #aigirl #streetleaks #stablediffusion #scenicview #cinematic #aigeneratedimages #streetphotographers #digitalart #life_is_street</v>
-      </c>
-      <c r="B21" t="str">
-        <v/>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2023</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -918,21 +1133,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>"Want to see more of my hot content? Follow me and subscribe to my Patreon now!" #modelgirl #digitalartwork #digitalart #cinematic #aisexy #lingerie #aigeneratedimages #stablediffusiongirls #dreaminstreets #beautyqueen #life_is_street #streetleaks #fashionphotography #sensualphoto #lingerie #portraitmood #streetphotographers #midjourney #scenicview #aiphotograph #aigeneratedart #stablediffusion #aigirl #35mm #capturestreets #beautifulwomen #cosplay #aiportrait #virtualgirl #stablediffusionart</v>
-      </c>
-      <c r="B22" t="str">
-        <v/>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
       </c>
       <c r="C22">
         <v>2023</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -941,21 +1156,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>"Want to see more of my Patreon and OnlyFans content? Let me know below!" #fashionphotography #35mm #midjourney #streetphotographers #stablediffusionart #modelgirl #aiphotograph #beautyqueen #digitalimage #aisexy #lingerie #scenicview #cinematic #streetleaks #capturestreets #aiportrait #portraitmood #cosplay #virtualgirl #sensualphoto #stablediffusion #life_is_street #dreaminstreets #aigeneratedart #beautifulwomen #digitalartwork #lingerie #digitalart #aigirl #stablediffusiongirls</v>
-      </c>
-      <c r="B23" t="str">
-        <v/>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
       </c>
       <c r="C23">
         <v>2023</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F23">
         <v>21</v>
@@ -964,21 +1179,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>"Ready for more NSFW content? Follow me and subscribe to my Patreon for even more spicy posts!" #streetleaks #streetphotographers #stablediffusiongirls #digitalart #capturestreets #aisexy #virtualgirl #aiphotograph #dreaminstreets #aigeneratedimages #digitalimage #cinematic #35mm #sensualphoto #stablediffusion #digitalartwork #cosplay #lingerie #stablediffusionart #midjourney #portraitmood #scenicview #aigeneratedart #aigirl #beautifulwomen #fashionphotography #modelgirl #lingerie #life_is_street #beautyqueen</v>
-      </c>
-      <c r="B24" t="str">
-        <v/>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
       <c r="C24">
         <v>2023</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>22</v>
@@ -987,21 +1202,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>"If you want to see more of my sexy Patreon and OnlyFans posts, comment below!" #modelgirl #streetleaks #digitalimage #stablediffusiongirls #aigirl #stablediffusionart #midjourney #aiportrait #sensualphoto #aigeneratedimages #aisexy #portraitmood #dreaminstreets #capturestreets #lingerie #beautyqueen #life_is_street #digitalart #aigeneratedart #cosplay #fashionphotography #lingerie #streetphotographers #virtualgirl #digitalartwork #aiphotograph #cinematic #35mm #scenicview #stablediffusion</v>
-      </c>
-      <c r="B25" t="str">
-        <v/>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
       <c r="C25">
         <v>2023</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>23</v>
@@ -1010,21 +1225,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>"Want to see what I have in store for my Patreon and OnlyFans fans? Comment and share to unlock!" #cosplay #dreaminstreets #digitalimage #streetphotographers #life_is_street #aiportrait #beautifulwomen #35mm #beautyqueen #aigeneratedart #aigeneratedimages #aiphotograph #streetleaks #stablediffusiongirls #lingerie #fashionphotography #aisexy #virtualgirl #sensualphoto #modelgirl #digitalart #aigirl #capturestreets #digitalartwork #stablediffusion #stablediffusionart #lingerie #scenicview #midjourney #cinematic</v>
-      </c>
-      <c r="B26" t="str">
-        <v/>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
       </c>
       <c r="C26">
         <v>2023</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1033,21 +1248,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>"Want to see more of my hot content? Follow me and subscribe to my Patreon for exclusive posts!" #aigeneratedimages #cosplay #aigirl #fashionphotography #aiportrait #lingerie #digitalart #stablediffusion #stablediffusionart #aisexy #capturestreets #portraitmood #scenicview #streetphotographers #digitalartwork #cinematic #beautyqueen #virtualgirl #lingerie #stablediffusiongirls #aigeneratedart #streetleaks #midjourney #beautifulwomen #modelgirl #dreaminstreets #sensualphoto #life_is_street #35mm #digitalimage</v>
-      </c>
-      <c r="B27" t="str">
-        <v/>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
       </c>
       <c r="C27">
         <v>2023</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1056,21 +1271,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>"Looking for more steamy content? Follow me and subscribe to my Patreon now!" #stablediffusion #aigeneratedimages #beautifulwomen #cosplay #streetphotographers #digitalartwork #capturestreets #lingerie #sensualphoto #aiphotograph #fashionphotography #beautyqueen #streetleaks #cinematic #scenicview #digitalimage #aigirl #life_is_street #aiportrait #modelgirl #35mm #aigeneratedart #aisexy #virtualgirl #dreaminstreets #midjourney #digitalart #stablediffusiongirls #stablediffusionart #portraitmood</v>
-      </c>
-      <c r="B28" t="str">
-        <v/>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
       </c>
       <c r="C28">
         <v>2023</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1079,21 +1294,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>"Don't miss out on my exclusive content! Follow me and subscribe to my Patreon now!" #stablediffusionart #portraitmood #aiphotograph #fashionphotography #capturestreets #beautyqueen #aigeneratedimages #stablediffusion #digitalart #scenicview #beautifulwomen #midjourney #cinematic #aisexy #lingerie #streetleaks #modelgirl #sensualphoto #streetphotographers #digitalimage #stablediffusiongirls #virtualgirl #lingerie #35mm #life_is_street #dreaminstreets #aigirl #aigeneratedart #cosplay #digitalartwork</v>
-      </c>
-      <c r="B29" t="str">
-        <v/>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
       </c>
       <c r="C29">
         <v>2023</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1102,21 +1317,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>"If you want to see more of my Patreon content, make sure to follow me for updates!" #dreaminstreets #cosplay #aigeneratedimages #stablediffusiongirls #cinematic #streetphotographers #aiportrait #lingerie #aigirl #stablediffusion #aisexy #aigeneratedart #capturestreets #35mm #stablediffusionart #digitalartwork #midjourney #digitalart #portraitmood #virtualgirl #modelgirl #streetleaks #lingerie #fashionphotography #sensualphoto #scenicview #beautifulwomen #life_is_street #aiphotograph #digitalimage</v>
-      </c>
-      <c r="B30" t="str">
-        <v/>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
       </c>
       <c r="C30">
         <v>2023</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -1125,21 +1340,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>"Want to see more of my Patreon and OnlyFans content? Let me know below!" #beautyqueen #beautifulwomen #aiportrait #digitalartwork #stablediffusionart #aigirl #stablediffusion #streetleaks #aigeneratedart #35mm #capturestreets #digitalart #stablediffusiongirls #cinematic #digitalimage #portraitmood #streetphotographers #lingerie #virtualgirl #dreaminstreets #midjourney #cosplay #aigeneratedimages #scenicview #life_is_street #lingerie #modelgirl #aiphotograph #aisexy #sensualphoto</v>
-      </c>
-      <c r="B31" t="str">
-        <v/>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
       </c>
       <c r="C31">
         <v>2023</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -1148,21 +1363,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>"Want to see more of my exclusive Patreon and OnlyFans pics and videos? Comment and share to unlock!" #virtualgirl #fashionphotography #beautyqueen #modelgirl #stablediffusion #digitalartwork #lingerie #streetleaks #stablediffusionart #aigeneratedart #lingerie #aiphotograph #midjourney #beautifulwomen #aigirl #dreaminstreets #scenicview #digitalart #sensualphoto #streetphotographers #digitalimage #aisexy #stablediffusiongirls #cinematic #life_is_street #aigeneratedimages #aiportrait #35mm #capturestreets #portraitmood</v>
-      </c>
-      <c r="B32" t="str">
-        <v/>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
       </c>
       <c r="C32">
         <v>2023</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -1171,21 +1386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>"Looking for some steamy Patreon and OnlyFans content? Comment and share to unlock my exclusive posts!" #cosplay #stablediffusion #modelgirl #lingerie #digitalartwork #digitalart #portraitmood #aigirl #aigeneratedimages #midjourney #stablediffusionart #stablediffusiongirls #streetleaks #life_is_street #lingerie #scenicview #fashionphotography #aiportrait #aigeneratedart #35mm #aiphotograph #digitalimage #sensualphoto #capturestreets #beautyqueen #virtualgirl #dreaminstreets #streetphotographers #cinematic #aisexy</v>
-      </c>
-      <c r="B33" t="str">
-        <v/>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
       </c>
       <c r="C33">
         <v>2023</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -1194,21 +1409,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>"Ready to see more of my sexy content? Follow me and subscribe to my Patreon for more!" #streetphotographers #midjourney #stablediffusion #sensualphoto #stablediffusionart #lingerie #streetleaks #beautifulwomen #portraitmood #cosplay #digitalimage #lingerie #aisexy #aigeneratedimages #35mm #aigeneratedart #aiportrait #digitalartwork #scenicview #life_is_street #aiphotograph #modelgirl #dreaminstreets #cinematic #aigirl #virtualgirl #capturestreets #beautyqueen #stablediffusiongirls #digitalart</v>
-      </c>
-      <c r="B34" t="str">
-        <v/>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
       </c>
       <c r="C34">
         <v>2023</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -1217,21 +1432,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>"Want to see more of my hot content? Follow me and subscribe to my Patreon now!" #aigirl #streetphotographers #digitalart #aigeneratedart #midjourney #life_is_street #aiphotograph #aigeneratedimages #modelgirl #aisexy #cinematic #cosplay #aiportrait #lingerie #fashionphotography #portraitmood #streetleaks #stablediffusionart #sensualphoto #digitalartwork #scenicview #lingerie #beautifulwomen #capturestreets #stablediffusiongirls #35mm #digitalimage #dreaminstreets #stablediffusion #virtualgirl</v>
-      </c>
-      <c r="B35" t="str">
-        <v/>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
       </c>
       <c r="C35">
         <v>2023</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>9</v>
@@ -1240,21 +1455,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>"Looking for some hot and exclusive content? Comment and share!" #stablediffusion #aigeneratedimages #modelgirl #scenicview #stablediffusionart #lingerie #capturestreets #life_is_street #midjourney #beautyqueen #portraitmood #cinematic #fashionphotography #aigeneratedart #beautifulwomen #lingerie #aiphotograph #aiportrait #digitalart #digitalimage #sensualphoto #digitalartwork #streetphotographers #35mm #virtualgirl #aigirl #stablediffusiongirls #aisexy #streetleaks #dreaminstreets</v>
-      </c>
-      <c r="B36" t="str">
-        <v/>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
       </c>
       <c r="C36">
         <v>2023</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -1263,21 +1478,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>"Ready for some uncensored content? Comment and share to unlock my Patreon and OnlyFans posts!" #stablediffusion #sensualphoto #capturestreets #midjourney #life_is_street #dreaminstreets #aiphotograph #streetphotographers #modelgirl #portraitmood #stablediffusiongirls #aigirl #lingerie #streetleaks #fashionphotography #35mm #aisexy #digitalartwork #aiportrait #stablediffusionart #cosplay #lingerie #cinematic #aigeneratedart #aigeneratedimages #scenicview #virtualgirl #beautyqueen #beautifulwomen #digitalart</v>
-      </c>
-      <c r="B37" t="str">
-        <v/>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
       </c>
       <c r="C37">
         <v>2023</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>11</v>
@@ -1286,21 +1501,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>"Don't miss out on my latest content! Follow me and subscribe to my Patreon now!" #stablediffusionart #stablediffusiongirls #life_is_street #aigirl #midjourney #35mm #beautyqueen #capturestreets #aisexy #cinematic #digitalimage #aigeneratedimages #modelgirl #aiportrait #lingerie #beautifulwomen #dreaminstreets #scenicview #aiphotograph #cosplay #digitalartwork #aigeneratedart #sensualphoto #digitalart #streetphotographers #lingerie #stablediffusion #virtualgirl #streetleaks #portraitmood</v>
-      </c>
-      <c r="B38" t="str">
-        <v/>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
       </c>
       <c r="C38">
         <v>2023</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>12</v>
@@ -1309,21 +1524,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>"Ready to see even more of my sexy side? Follow me and subscribe to my Patreon for exclusive content!" #digitalartwork #modelgirl #cinematic #beautyqueen #streetphotographers #sensualphoto #digitalart #fashionphotography #stablediffusiongirls #cosplay #aigirl #aiportrait #lingerie #lingerie #portraitmood #stablediffusion #capturestreets #virtualgirl #35mm #midjourney #beautifulwomen #streetleaks #scenicview #life_is_street #dreaminstreets #stablediffusionart #aisexy #aiphotograph #aigeneratedart #digitalimage</v>
-      </c>
-      <c r="B39" t="str">
-        <v/>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
       </c>
       <c r="C39">
         <v>2023</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>13</v>
@@ -1332,21 +1547,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>"Are you a fan of my Patreon and OnlyFans content? Let me know in the comments and share this post!" #life_is_street #aigeneratedimages #digitalartwork #sensualphoto #aigirl #lingerie #digitalimage #stablediffusiongirls #beautifulwomen #beautyqueen #stablediffusion #digitalart #lingerie #dreaminstreets #scenicview #35mm #cinematic #capturestreets #aisexy #cosplay #aiportrait #fashionphotography #stablediffusionart #portraitmood #midjourney #aiphotograph #aigeneratedart #modelgirl #virtualgirl #streetleaks</v>
-      </c>
-      <c r="B40" t="str">
-        <v/>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
       </c>
       <c r="C40">
         <v>2023</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>14</v>
@@ -1355,21 +1570,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>"Want to see more of my exclusive Patreon and OnlyFans pics and videos? Comment and share to unlock!" #stablediffusiongirls #midjourney #cosplay #digitalartwork #capturestreets #streetphotographers #streetleaks #virtualgirl #aigeneratedimages #dreaminstreets #beautyqueen #aigeneratedart #35mm #cinematic #life_is_street #beautifulwomen #aigirl #lingerie #stablediffusion #stablediffusionart #aiphotograph #fashionphotography #lingerie #modelgirl #portraitmood #digitalimage #digitalart #sensualphoto #aiportrait #aisexy</v>
-      </c>
-      <c r="B41" t="str">
-        <v/>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
       </c>
       <c r="C41">
         <v>2023</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>15</v>
@@ -1378,21 +1593,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>"Want to see more of my sexy Patreon and OnlyFans pics and videos? Comment and share to unlock!" #stablediffusiongirls #portraitmood #lingerie #virtualgirl #modelgirl #midjourney #scenicview #streetphotographers #aisexy #dreaminstreets #cosplay #35mm #aiportrait #life_is_street #lingerie #beautifulwomen #digitalart #aiphotograph #fashionphotography #digitalartwork #capturestreets #stablediffusion #aigirl #digitalimage #beautyqueen #streetleaks #stablediffusionart #aigeneratedart #aigeneratedimages #cinematic</v>
-      </c>
-      <c r="B42" t="str">
-        <v/>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
       </c>
       <c r="C42">
         <v>2023</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>16</v>
@@ -1401,21 +1616,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>"If you want to see more of my sexy Patreon and OnlyFans posts, comment below!" #aiportrait #beautyqueen #streetphotographers #cinematic #capturestreets #digitalart #modelgirl #life_is_street #virtualgirl #midjourney #stablediffusionart #aigeneratedimages #aigirl #aigeneratedart #digitalimage #dreaminstreets #sensualphoto #beautifulwomen #digitalartwork #streetleaks #lingerie #aisexy #lingerie #35mm #aiphotograph #portraitmood #scenicview #fashionphotography #stablediffusion #cosplay</v>
-      </c>
-      <c r="B43" t="str">
-        <v/>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
       </c>
       <c r="C43">
         <v>2023</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>17</v>
@@ -1424,21 +1639,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>"Don't miss out on my exclusive content! Follow me and subscribe to my Patreon now!" #capturestreets #aiphotograph #dreaminstreets #35mm #digitalimage #modelgirl #portraitmood #cinematic #aigeneratedart #scenicview #life_is_street #lingerie #stablediffusiongirls #digitalart #fashionphotography #stablediffusionart #aisexy #sensualphoto #beautifulwomen #cosplay #stablediffusion #aigirl #aigeneratedimages #virtualgirl #aiportrait #beautyqueen #midjourney #streetleaks #lingerie #streetphotographers</v>
-      </c>
-      <c r="B44" t="str">
-        <v/>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
       </c>
       <c r="C44">
         <v>2023</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>18</v>
@@ -1447,21 +1662,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>"If you're a fan of my sexy Patreon and OnlyFans page, show some love in the comments and share this post!" #aiportrait #fashionphotography #stablediffusiongirls #sensualphoto #beautifulwomen #streetphotographers #virtualgirl #lingerie #beautyqueen #aigirl #dreaminstreets #portraitmood #aigeneratedart #life_is_street #scenicview #aisexy #modelgirl #capturestreets #lingerie #aigeneratedimages #digitalimage #stablediffusionart #cinematic #midjourney #cosplay #35mm #stablediffusion #digitalart #aiphotograph #streetleaks</v>
-      </c>
-      <c r="B45" t="str">
-        <v/>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
       </c>
       <c r="C45">
         <v>2023</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -1470,21 +1685,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>"Looking for some steamy Patreon and OnlyFans content? Comment and share to unlock my exclusive posts!" #aigeneratedimages #aigeneratedart #aisexy #fashionphotography #digitalartwork #aiportrait #cinematic #dreaminstreets #aiphotograph #capturestreets #life_is_street #stablediffusiongirls #lingerie #lingerie #beautifulwomen #stablediffusion #virtualgirl #midjourney #cosplay #portraitmood #sensualphoto #streetleaks #stablediffusionart #digitalart #beautyqueen #digitalimage #35mm #streetphotographers #aigirl #modelgirl</v>
-      </c>
-      <c r="B46" t="str">
-        <v/>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
       </c>
       <c r="C46">
         <v>2023</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>20</v>
@@ -1493,21 +1708,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>"Want to see what's behind the curtain? Comment and share to unlock some exclusive Patreon and OnlyFans content!" #35mm #digitalimage #stablediffusiongirls #cosplay #stablediffusionart #midjourney #capturestreets #lingerie #sensualphoto #aiphotograph #life_is_street #dreaminstreets #stablediffusion #cinematic #aigirl #aiportrait #digitalartwork #portraitmood #streetleaks #scenicview #fashionphotography #digitalart #lingerie #aisexy #aigeneratedart #beautifulwomen #aigeneratedimages #modelgirl #virtualgirl #streetphotographers</v>
-      </c>
-      <c r="B47" t="str">
-        <v/>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
       </c>
       <c r="C47">
         <v>2023</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>21</v>
@@ -1516,21 +1731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>"Looking for more steamy content? Follow me and subscribe to my Patreon now!" #cinematic #aisexy #stablediffusionart #stablediffusiongirls #life_is_street #modelgirl #scenicview #aiportrait #dreaminstreets #aiphotograph #35mm #virtualgirl #digitalartwork #midjourney #beautifulwomen #aigeneratedimages #sensualphoto #digitalimage #aigeneratedart #beautyqueen #streetphotographers #cosplay #capturestreets #digitalart #stablediffusion #streetleaks #lingerie #aigirl #lingerie #fashionphotography</v>
-      </c>
-      <c r="B48" t="str">
-        <v/>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
       </c>
       <c r="C48">
         <v>2023</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>22</v>
@@ -1539,21 +1754,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>"Ready to see more of my sexy side? Follow me and subscribe to my Patreon for exclusive content!" #stablediffusionart #aigeneratedimages #portraitmood #aiphotograph #35mm #lingerie #midjourney #aisexy #cosplay #scenicview #aigeneratedart #beautifulwomen #streetleaks #dreaminstreets #virtualgirl #beautyqueen #life_is_street #stablediffusiongirls #cinematic #streetphotographers #aigirl #modelgirl #capturestreets #digitalartwork #sensualphoto #stablediffusion #fashionphotography #aiportrait #digitalart #digitalimage</v>
-      </c>
-      <c r="B49" t="str">
-        <v/>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
       </c>
       <c r="C49">
         <v>2023</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -1562,21 +1777,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>"If you're ready to see more of my Patreon and OnlyFans posts, drop a comment and share this post!" #cinematic #stablediffusionart #aigeneratedimages #beautifulwomen #beautyqueen #aigirl #portraitmood #virtualgirl #streetleaks #stablediffusion #aisexy #scenicview #life_is_street #modelgirl #aiportrait #midjourney #streetphotographers #digitalimage #lingerie #dreaminstreets #cosplay #fashionphotography #capturestreets #sensualphoto #stablediffusiongirls #digitalartwork #35mm #aiphotograph #lingerie #digitalart</v>
-      </c>
-      <c r="B50" t="str">
-        <v/>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
       </c>
       <c r="C50">
         <v>2023</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1585,21 +1800,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>"If you want to see more of my sexy Patreon and OnlyFans posts, comment below!" #cinematic #capturestreets #aigeneratedart #beautifulwomen #dreaminstreets #lingerie #midjourney #stablediffusionart #aiphotograph #streetphotographers #35mm #digitalartwork #digitalimage #aisexy #fashionphotography #scenicview #cosplay #modelgirl #sensualphoto #digitalart #stablediffusion #aiportrait #aigeneratedimages #beautyqueen #aigirl #streetleaks #stablediffusiongirls #lingerie #portraitmood #virtualgirl</v>
-      </c>
-      <c r="B51" t="str">
-        <v/>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
       </c>
       <c r="C51">
         <v>2023</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1608,515 +1823,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>"Looking for some steamy Patreon and OnlyFans content? Comment and share to unlock my exclusive posts!" #digitalartwork #midjourney #aigeneratedimages #sensualphoto #portraitmood #life_is_street #stablediffusionart #cinematic #beautifulwomen #aiportrait #cosplay #streetleaks #virtualgirl #lingerie #35mm #capturestreets #lingerie #aigirl #aisexy #digitalart #beautyqueen #stablediffusiongirls #dreaminstreets #scenicview #modelgirl #fashionphotography #aigeneratedart #aiphotograph #digitalimage #stablediffusion</v>
-      </c>
-      <c r="B52" t="str">
-        <v/>
-      </c>
-      <c r="C52">
-        <v>2023</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>19</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>"Ready to see even more of my sexy side? Follow me and subscribe to my Patreon for exclusive content!" #aigeneratedimages #sensualphoto #aigirl #life_is_street #cosplay #portraitmood #cinematic #stablediffusionart #aisexy #digitalart #streetleaks #aiportrait #modelgirl #streetphotographers #capturestreets #aigeneratedart #fashionphotography #stablediffusion #stablediffusiongirls #virtualgirl #digitalimage #lingerie #lingerie #aiphotograph #midjourney #digitalartwork #dreaminstreets #beautyqueen #beautifulwomen #35mm</v>
-      </c>
-      <c r="B53" t="str">
-        <v/>
-      </c>
-      <c r="C53">
-        <v>2023</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>19</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>"If you want to see more of my Patreon and OnlyFans pics and videos, comment and let me know!" #aisexy #aiphotograph #beautyqueen #digitalimage #scenicview #cinematic #aigeneratedart #capturestreets #35mm #portraitmood #stablediffusionart #aigeneratedimages #sensualphoto #digitalartwork #streetphotographers #digitalart #beautifulwomen #stablediffusiongirls #dreaminstreets #cosplay #modelgirl #midjourney #aigirl #aiportrait #lingerie #lingerie #life_is_street #fashionphotography #stablediffusion #streetleaks</v>
-      </c>
-      <c r="B54" t="str">
-        <v/>
-      </c>
-      <c r="C54">
-        <v>2023</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <v>19</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>"Ready to see more of my sexy side? Follow me and subscribe to my Patreon for exclusive content!" #digitalart #cosplay #scenicview #aigirl #stablediffusionart #sensualphoto #fashionphotography #lingerie #lingerie #stablediffusion #life_is_street #modelgirl #midjourney #aigeneratedimages #beautifulwomen #capturestreets #portraitmood #stablediffusiongirls #aiportrait #aigeneratedart #35mm #streetphotographers #virtualgirl #beautyqueen #aisexy #dreaminstreets #digitalimage #cinematic #aiphotograph #streetleaks</v>
-      </c>
-      <c r="B55" t="str">
-        <v/>
-      </c>
-      <c r="C55">
-        <v>2023</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <v>19</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>"Want to see more of my steamy content? Follow me and subscribe to my Patreon now!" #stablediffusionart #35mm #fashionphotography #aiphotograph #aigirl #stablediffusion #dreaminstreets #stablediffusiongirls #scenicview #lingerie #aigeneratedart #lingerie #sensualphoto #aisexy #modelgirl #digitalartwork #capturestreets #life_is_street #cosplay #digitalart #streetphotographers #beautyqueen #digitalimage #portraitmood #midjourney #virtualgirl #aigeneratedimages #beautifulwomen #streetleaks #aiportrait</v>
-      </c>
-      <c r="B56" t="str">
-        <v/>
-      </c>
-      <c r="C56">
-        <v>2023</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56">
-        <v>19</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>"Looking for some uncensored Patreon and OnlyFans content? Comment and share to unlock!" #aiportrait #life_is_street #aiphotograph #stablediffusion #digitalart #modelgirl #lingerie #lingerie #sensualphoto #digitalartwork #fashionphotography #cosplay #dreaminstreets #streetphotographers #digitalimage #stablediffusiongirls #capturestreets #35mm #cinematic #aisexy #stablediffusionart #beautifulwomen #streetleaks #aigirl #beautyqueen #scenicview #virtualgirl #midjourney #aigeneratedart #aigeneratedimages</v>
-      </c>
-      <c r="B57" t="str">
-        <v/>
-      </c>
-      <c r="C57">
-        <v>2023</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>19</v>
-      </c>
-      <c r="F57">
-        <v>7</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>"Looking for more steamy content? Follow me and subscribe to my Patreon now!" #aisexy #stablediffusion #aiphotograph #aigirl #cosplay #midjourney #virtualgirl #beautifulwomen #digitalart #stablediffusiongirls #capturestreets #beautyqueen #35mm #cinematic #fashionphotography #life_is_street #aigeneratedart #aiportrait #portraitmood #streetleaks #scenicview #lingerie #dreaminstreets #lingerie #digitalartwork #aigeneratedimages #sensualphoto #modelgirl #digitalimage #streetphotographers</v>
-      </c>
-      <c r="B58" t="str">
-        <v/>
-      </c>
-      <c r="C58">
-        <v>2023</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>19</v>
-      </c>
-      <c r="F58">
-        <v>8</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>"Want to see what I have in store for my Patreon and OnlyFans fans? Comment and share to unlock!" #portraitmood #aigirl #modelgirl #cosplay #beautyqueen #cinematic #capturestreets #scenicview #aiphotograph #stablediffusion #aisexy #digitalart #streetleaks #aigeneratedimages #digitalimage #fashionphotography #beautifulwomen #streetphotographers #midjourney #virtualgirl #sensualphoto #life_is_street #aigeneratedart #digitalartwork #stablediffusionart #stablediffusiongirls #lingerie #35mm #dreaminstreets #aiportrait</v>
-      </c>
-      <c r="B59" t="str">
-        <v/>
-      </c>
-      <c r="C59">
-        <v>2023</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>19</v>
-      </c>
-      <c r="F59">
-        <v>9</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>"If you want access to my best content, follow me and subscribe to my Patreon for exclusive pics and videos!" #aigirl #scenicview #stablediffusiongirls #aiportrait #beautifulwomen #cinematic #capturestreets #digitalart #digitalimage #portraitmood #sensualphoto #lingerie #modelgirl #cosplay #stablediffusion #streetphotographers #beautyqueen #aigeneratedart #lingerie #streetleaks #life_is_street #dreaminstreets #35mm #fashionphotography #digitalartwork #midjourney #aisexy #stablediffusionart #aiphotograph #virtualgirl</v>
-      </c>
-      <c r="B60" t="str">
-        <v/>
-      </c>
-      <c r="C60">
-        <v>2023</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60">
-        <v>19</v>
-      </c>
-      <c r="F60">
-        <v>10</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>"If you want access to my best content, follow me and subscribe to my Patreon for exclusive posts!" #beautyqueen #aigirl #sensualphoto #aiphotograph #virtualgirl #aiportrait #cinematic #digitalartwork #streetphotographers #digitalimage #aigeneratedimages #streetleaks #cosplay #lingerie #portraitmood #stablediffusionart #digitalart #aisexy #scenicview #life_is_street #lingerie #aigeneratedart #stablediffusion #fashionphotography #midjourney #35mm #stablediffusiongirls #beautifulwomen #dreaminstreets #capturestreets</v>
-      </c>
-      <c r="B61" t="str">
-        <v/>
-      </c>
-      <c r="C61">
-        <v>2023</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>19</v>
-      </c>
-      <c r="F61">
-        <v>11</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>"Want to see what's behind the curtain? Comment and share to unlock some exclusive Patreon and OnlyFans content!" #beautyqueen #life_is_street #modelgirl #fashionphotography #streetleaks #streetphotographers #stablediffusiongirls #lingerie #lingerie #portraitmood #digitalartwork #aigeneratedart #aigirl #stablediffusionart #midjourney #scenicview #digitalimage #aigeneratedimages #aiportrait #digitalart #sensualphoto #beautifulwomen #dreaminstreets #aiphotograph #aisexy #capturestreets #virtualgirl #cinematic #cosplay #stablediffusion</v>
-      </c>
-      <c r="B62" t="str">
-        <v/>
-      </c>
-      <c r="C62">
-        <v>2023</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62">
-        <v>19</v>
-      </c>
-      <c r="F62">
-        <v>12</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>"Don't miss out on my hottest content! Follow me and subscribe to my Patreon for exclusive posts!" #cinematic #beautifulwomen #digitalartwork #scenicview #beautyqueen #virtualgirl #aigeneratedimages #sensualphoto #streetphotographers #aiphotograph #35mm #portraitmood #life_is_street #digitalimage #aiportrait #lingerie #capturestreets #modelgirl #stablediffusiongirls #stablediffusion #aigirl #cosplay #aigeneratedart #fashionphotography #streetleaks #lingerie #midjourney #aisexy #dreaminstreets #digitalart</v>
-      </c>
-      <c r="B63" t="str">
-        <v/>
-      </c>
-      <c r="C63">
-        <v>2023</v>
-      </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-      <c r="E63">
-        <v>19</v>
-      </c>
-      <c r="F63">
-        <v>13</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>"Want to see more of my steamy content? Follow me and subscribe to my Patreon now!" #fashionphotography #portraitmood #modelgirl #streetleaks #sensualphoto #aigirl #aiportrait #digitalimage #lingerie #35mm #dreaminstreets #cosplay #digitalartwork #capturestreets #digitalart #aigeneratedimages #virtualgirl #beautyqueen #stablediffusion #stablediffusiongirls #aiphotograph #lingerie #streetphotographers #aigeneratedart #midjourney #beautifulwomen #stablediffusionart #life_is_street #aisexy #cinematic</v>
-      </c>
-      <c r="B64" t="str">
-        <v/>
-      </c>
-      <c r="C64">
-        <v>2023</v>
-      </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <v>19</v>
-      </c>
-      <c r="F64">
-        <v>14</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>"Looking for more exclusive content? Follow me and subscribe to my Patreon for more!" #fashionphotography #stablediffusion #aigirl #midjourney #portraitmood #stablediffusiongirls #scenicview #aigeneratedimages #lingerie #digitalimage #modelgirl #digitalart #aigeneratedart #beautifulwomen #life_is_street #streetleaks #capturestreets #aiportrait #aisexy #sensualphoto #cosplay #beautyqueen #cinematic #virtualgirl #streetphotographers #lingerie #stablediffusionart #aiphotograph #dreaminstreets #35mm</v>
-      </c>
-      <c r="B65" t="str">
-        <v/>
-      </c>
-      <c r="C65">
-        <v>2023</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65">
-        <v>19</v>
-      </c>
-      <c r="F65">
-        <v>15</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>"If you're a fan of my sexy Patreon and OnlyFans page, show some love in the comments and share this post!" #virtualgirl #fashionphotography #stablediffusion #cosplay #stablediffusiongirls #35mm #capturestreets #life_is_street #aiphotograph #stablediffusionart #scenicview #beautifulwomen #lingerie #aisexy #digitalartwork #aigeneratedart #streetleaks #aigirl #aigeneratedimages #streetphotographers #digitalart #aiportrait #dreaminstreets #midjourney #portraitmood #modelgirl #lingerie #beautyqueen #digitalimage #sensualphoto</v>
-      </c>
-      <c r="B66" t="str">
-        <v/>
-      </c>
-      <c r="C66">
-        <v>2023</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66">
-        <v>19</v>
-      </c>
-      <c r="F66">
-        <v>16</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>"Don't miss out on my exclusive content! Follow me and subscribe to my Patreon now!" #aisexy #beautyqueen #fashionphotography #digitalimage #virtualgirl #stablediffusionart #life_is_street #midjourney #stablediffusiongirls #dreaminstreets #aigeneratedart #modelgirl #aigeneratedimages #portraitmood #aigirl #lingerie #beautifulwomen #capturestreets #sensualphoto #stablediffusion #cosplay #aiportrait #35mm #streetphotographers #scenicview #streetleaks #digitalart #digitalartwork #aiphotograph #lingerie</v>
-      </c>
-      <c r="B67" t="str">
-        <v/>
-      </c>
-      <c r="C67">
-        <v>2023</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67">
-        <v>19</v>
-      </c>
-      <c r="F67">
-        <v>17</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>"Looking for more exclusive content? Follow me and subscribe to my Patreon for more!" #35mm #lingerie #aigeneratedimages #aiphotograph #cosplay #beautyqueen #stablediffusion #streetphotographers #virtualgirl #aigirl #cinematic #aigeneratedart #beautifulwomen #streetleaks #stablediffusionart #aisexy #stablediffusiongirls #digitalart #life_is_street #lingerie #midjourney #capturestreets #digitalartwork #portraitmood #modelgirl #fashionphotography #digitalimage #aiportrait #scenicview #dreaminstreets</v>
-      </c>
-      <c r="B68" t="str">
-        <v/>
-      </c>
-      <c r="C68">
-        <v>2023</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>19</v>
-      </c>
-      <c r="F68">
-        <v>18</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>"If you want to see more of my Patreon and OnlyFans pics and videos, comment and let me know!" #beautifulwomen #35mm #digitalimage #stablediffusion #lingerie #stablediffusionart #portraitmood #modelgirl #stablediffusiongirls #digitalart #cinematic #beautyqueen #aiportrait #life_is_street #aigeneratedimages #digitalartwork #sensualphoto #fashionphotography #aigirl #dreaminstreets #streetleaks #cosplay #scenicview #midjourney #lingerie #aiphotograph #streetphotographers #aigeneratedart #capturestreets #virtualgirl</v>
-      </c>
-      <c r="B69" t="str">
-        <v/>
-      </c>
-      <c r="C69">
-        <v>2023</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69">
-        <v>19</v>
-      </c>
-      <c r="F69">
-        <v>19</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>"Want to see more of my hot content? Follow me and subscribe to my Patreon for exclusive posts!" #scenicview #modelgirl #streetleaks #digitalart #sensualphoto #aiportrait #life_is_street #lingerie #virtualgirl #capturestreets #midjourney #cosplay #beautyqueen #stablediffusiongirls #digitalartwork #dreaminstreets #stablediffusionart #stablediffusion #cinematic #lingerie #digitalimage #aigirl #aiphotograph #35mm #aisexy #aigeneratedart #aigeneratedimages #streetphotographers #fashionphotography #beautifulwomen</v>
-      </c>
-      <c r="B70" t="str">
-        <v/>
-      </c>
-      <c r="C70">
-        <v>2023</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>19</v>
-      </c>
-      <c r="F70">
-        <v>20</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>"Want to see more of my sexy Patreon and OnlyFans pics and videos? Comment and share to unlock!" #35mm #digitalimage #stablediffusion #aisexy #scenicview #aiportrait #cinematic #lingerie #virtualgirl #digitalartwork #stablediffusiongirls #aigeneratedimages #digitalart #beautifulwomen #aigeneratedart #modelgirl #capturestreets #dreaminstreets #aigirl #life_is_street #portraitmood #cosplay #midjourney #sensualphoto #stablediffusionart #beautyqueen #lingerie #aiphotograph #streetleaks #fashionphotography</v>
-      </c>
-      <c r="B71" t="str">
-        <v/>
-      </c>
-      <c r="C71">
-        <v>2023</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71">
-        <v>19</v>
-      </c>
-      <c r="F71">
-        <v>21</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>"Ready for some NSFW Patreon and OnlyFans content? Comment and share to see more!" #stablediffusion #lingerie #aisexy #streetleaks #virtualgirl #beautifulwomen #sensualphoto #dreaminstreets #cosplay #stablediffusionart #fashionphotography #streetphotographers #portraitmood #capturestreets #modelgirl #35mm #digitalartwork #cinematic #scenicview #aiportrait #stablediffusiongirls #midjourney #life_is_street #aigeneratedimages #aigirl #aigeneratedart #beautyqueen #lingerie #digitalimage #digitalart</v>
-      </c>
-      <c r="B72" t="str">
-        <v/>
-      </c>
-      <c r="C72">
-        <v>2023</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72">
-        <v>19</v>
-      </c>
-      <c r="F72">
-        <v>22</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>"If you're a fan of my sexy Patreon and OnlyFans page, show some love in the comments and share this post!" #dreaminstreets #beautyqueen #stablediffusionart #stablediffusion #portraitmood #scenicview #digitalimage #life_is_street #aigirl #digitalartwork #lingerie #modelgirl #beautifulwomen #aiportrait #aisexy #aiphotograph #lingerie #aigeneratedimages #streetleaks #sensualphoto #fashionphotography #virtualgirl #midjourney #cinematic #aigeneratedart #capturestreets #35mm #cosplay #streetphotographers #digitalart</v>
-      </c>
-      <c r="B73" t="str">
-        <v/>
-      </c>
-      <c r="C73">
-        <v>2023</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73">
-        <v>19</v>
-      </c>
-      <c r="F73">
-        <v>23</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R73"/>
+    <ignoredError sqref="A1:S51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>